--- a/example_data/EMA/label_corrected/aerius-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/aerius-epar-product-information_en.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -831,7 +831,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I254" t="inlineStr"/>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
